--- a/draft_data_original.xlsx
+++ b/draft_data_original.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\Matt\draft_dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msantoro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8A9178-76C7-4E2B-993E-DE1AA07575F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EED533-A9D0-479F-BC30-56075B1AC85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2580" yWindow="2580" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="available_players" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t>Eval Number</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Holloran, Mazy</t>
   </si>
   <si>
-    <t>Holloran</t>
-  </si>
-  <si>
     <t>Round</t>
   </si>
   <si>
@@ -297,6 +294,36 @@
   </si>
   <si>
     <t>Carlozzi, Nora</t>
+  </si>
+  <si>
+    <t>Acconcia, Sienna</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>shanks</t>
+  </si>
+  <si>
+    <t>hirsch</t>
+  </si>
+  <si>
+    <t>riley</t>
+  </si>
+  <si>
+    <t>gianarikas</t>
+  </si>
+  <si>
+    <t>barret</t>
+  </si>
+  <si>
+    <t>hurley</t>
+  </si>
+  <si>
+    <t>baker</t>
+  </si>
+  <si>
+    <t>oriely</t>
   </si>
 </sst>
 </file>
@@ -562,13 +589,13 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -659,7 +686,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>9</v>
       </c>
@@ -673,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -685,7 +712,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>11</v>
       </c>
@@ -699,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -711,7 +738,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -725,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -737,7 +764,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>16</v>
       </c>
@@ -749,7 +776,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -761,7 +788,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>18</v>
       </c>
@@ -773,7 +800,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>19</v>
       </c>
@@ -785,7 +812,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>20</v>
       </c>
@@ -797,7 +824,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>21</v>
       </c>
@@ -809,7 +836,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>22</v>
       </c>
@@ -823,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>23</v>
       </c>
@@ -835,7 +862,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>25</v>
       </c>
@@ -849,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>26</v>
       </c>
@@ -861,7 +888,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>27</v>
       </c>
@@ -875,7 +902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>30</v>
       </c>
@@ -889,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>31</v>
       </c>
@@ -901,7 +928,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>32</v>
       </c>
@@ -909,11 +936,11 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>33</v>
       </c>
@@ -921,11 +948,11 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>34</v>
       </c>
@@ -933,13 +960,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>35</v>
       </c>
@@ -947,11 +974,11 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>36</v>
       </c>
@@ -959,13 +986,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>37</v>
       </c>
@@ -973,11 +1000,11 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>38</v>
       </c>
@@ -985,11 +1012,11 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>39</v>
       </c>
@@ -997,13 +1024,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>40</v>
       </c>
@@ -1011,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41</v>
       </c>
@@ -1025,11 +1052,11 @@
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42</v>
       </c>
@@ -1037,11 +1064,11 @@
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43</v>
       </c>
@@ -1049,11 +1076,11 @@
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44</v>
       </c>
@@ -1061,11 +1088,11 @@
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45</v>
       </c>
@@ -1073,11 +1100,11 @@
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>46</v>
       </c>
@@ -1085,11 +1112,11 @@
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>48</v>
       </c>
@@ -1097,11 +1124,11 @@
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>49</v>
       </c>
@@ -1109,13 +1136,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>50</v>
       </c>
@@ -1123,11 +1150,11 @@
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>51</v>
       </c>
@@ -1135,11 +1162,11 @@
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>53</v>
       </c>
@@ -1147,13 +1174,13 @@
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>54</v>
       </c>
@@ -1161,11 +1188,11 @@
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>55</v>
       </c>
@@ -1173,13 +1200,13 @@
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>56</v>
       </c>
@@ -1187,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>57</v>
       </c>
@@ -1201,11 +1228,11 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>58</v>
       </c>
@@ -1213,13 +1240,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>59</v>
       </c>
@@ -1227,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>60</v>
       </c>
@@ -1241,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>61</v>
       </c>
@@ -1255,11 +1282,11 @@
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>62</v>
       </c>
@@ -1267,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>63</v>
       </c>
@@ -1281,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>65</v>
       </c>
@@ -1295,13 +1322,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>66</v>
       </c>
@@ -1309,11 +1336,11 @@
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>70</v>
       </c>
@@ -1321,11 +1348,11 @@
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>71</v>
       </c>
@@ -1333,11 +1360,11 @@
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>72</v>
       </c>
@@ -1345,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>73</v>
       </c>
@@ -1359,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>75</v>
       </c>
@@ -1373,13 +1400,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>76</v>
       </c>
@@ -1387,11 +1414,11 @@
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>79</v>
       </c>
@@ -1399,11 +1426,11 @@
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>80</v>
       </c>
@@ -1411,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>82</v>
       </c>
@@ -1425,101 +1452,101 @@
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
@@ -1537,11 +1564,11 @@
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1564,7 +1591,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,11 +1657,11 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1672,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,11 +1759,11 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1801,14 +1828,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8427AD1F-8A32-4005-956B-C9C7AC1CBA2F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1821,11 +1894,11 @@
       <selection activeCell="D13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1853,7 +1926,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1867,7 +1940,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,11 +1996,11 @@
       <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1965,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1976,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2022,11 +2095,11 @@
       <selection activeCell="D2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2054,7 +2127,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,11 +2188,11 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2169,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2180,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,11 +2284,11 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2238,7 +2311,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,7 +2325,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,11 +2386,11 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2357,7 +2430,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/draft_data_original.xlsx
+++ b/draft_data_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msantoro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EED533-A9D0-479F-BC30-56075B1AC85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F075110-ED6C-4D10-90BC-E07DD19888E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <t>baker</t>
   </si>
   <si>
-    <t>oriely</t>
+    <t>oreily</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1831,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/draft_data_original.xlsx
+++ b/draft_data_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msantoro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F075110-ED6C-4D10-90BC-E07DD19888E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED54257-A6CB-4AB4-A380-3002E3587799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="available_players" sheetId="1" r:id="rId1"/>
@@ -314,9 +314,6 @@
     <t>gianarikas</t>
   </si>
   <si>
-    <t>barret</t>
-  </si>
-  <si>
     <t>hurley</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>oreily</t>
+  </si>
+  <si>
+    <t>barrett</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1831,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1863,22 +1863,22 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
